--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t xml:space="preserve">Multivar</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">вс</t>
   </si>
   <si>
-    <t xml:space="preserve">13 фев</t>
+    <t xml:space="preserve">12 фев</t>
   </si>
   <si>
     <t xml:space="preserve">В</t>
@@ -58,22 +58,22 @@
     <t xml:space="preserve">Знакомство с многомерными данными</t>
   </si>
   <si>
-    <t xml:space="preserve">16 фев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М</t>
+    <t xml:space="preserve">15 фев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н</t>
   </si>
   <si>
     <t xml:space="preserve">nMDS, envfit, ordisurf </t>
   </si>
   <si>
-    <t xml:space="preserve">20 фев</t>
+    <t xml:space="preserve">19 фев</t>
   </si>
   <si>
     <t xml:space="preserve">Тест Мантела, ANOSIM, SIMPER</t>
   </si>
   <si>
-    <t xml:space="preserve">27 фев</t>
+    <t xml:space="preserve">22 фев</t>
   </si>
   <si>
     <t xml:space="preserve">PERMANOVA </t>
@@ -82,55 +82,49 @@
     <t xml:space="preserve">Март</t>
   </si>
   <si>
-    <t xml:space="preserve">Проект на Stepik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 марта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 мар</t>
+    <t xml:space="preserve">26 фев</t>
   </si>
   <si>
     <t xml:space="preserve">Cluster analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">9 мар</t>
+    <t xml:space="preserve">29 фев</t>
   </si>
   <si>
     <t xml:space="preserve">Основы линейной алгебры.</t>
   </si>
   <si>
-    <t xml:space="preserve">13 мар</t>
+    <t xml:space="preserve">14 мар</t>
   </si>
   <si>
     <t xml:space="preserve">PCA</t>
   </si>
   <si>
-    <t xml:space="preserve">16 мар</t>
+    <t xml:space="preserve">18 мар</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
   </si>
   <si>
+    <t xml:space="preserve">21 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 мар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbRDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Апрель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 апр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbRDA</t>
   </si>
 </sst>
 </file>
@@ -140,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,14 +177,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFC9211E"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,38 +207,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9E00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9E00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9E00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,64 +305,68 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -419,7 +401,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF9E00"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -440,17 +422,17 @@
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -467,10 +449,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.54296875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="3.89"/>
@@ -510,7 +492,7 @@
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -582,25 +564,25 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="C7" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="D7" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="E7" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="F7" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="G7" s="9" t="n">
         <v>18</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>19</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="14" t="s">
@@ -620,26 +602,26 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="C8" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="D8" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="E8" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="F8" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="G8" s="9" t="n">
         <v>25</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>26</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="10" t="s">
@@ -666,20 +648,26 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="D9" s="12" t="n">
+        <v>29</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>13</v>
+      <c r="K9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>4</v>
@@ -699,8 +687,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
-      <c r="M10" s="2" t="s">
+      <c r="I10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>20</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -726,181 +726,207 @@
         <v>8</v>
       </c>
       <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="F12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="G12" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="H12" s="9"/>
+      <c r="I12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="B13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="C13" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="D13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="E13" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="F13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="G13" s="9" t="n">
         <v>10</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>12</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="F15" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="L15" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="L14" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="M15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" s="9" t="n">
+      <c r="B16" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="C16" s="9" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9" t="n">
+      <c r="D16" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="E16" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="F16" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="G16" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -912,16 +938,20 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H18" s="9"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -956,157 +986,128 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G21" s="9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="L21" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>7</v>
+      <c r="D22" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" s="28" t="n">
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G22" s="9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="n">
-        <v>14</v>
+      <c r="A23" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" s="28" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" s="28" t="n">
+        <v>19</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G23" s="9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E24" s="9" t="n">
-        <v>21</v>
+      <c r="A24" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="27" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="28" t="n">
+        <v>24</v>
+      </c>
+      <c r="D24" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" s="28" t="n">
+        <v>26</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G24" s="9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E25" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="G25" s="9" t="n">
         <v>30</v>
       </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -115,13 +115,13 @@
     <t xml:space="preserve">25 мар</t>
   </si>
   <si>
-    <t xml:space="preserve">CCA</t>
+    <t xml:space="preserve">CCA, dbRDA</t>
   </si>
   <si>
     <t xml:space="preserve">28 мар</t>
   </si>
   <si>
-    <t xml:space="preserve">dbRDA</t>
+    <t xml:space="preserve">Применение методов многомерной статистики (+Лиза про микробиомы)</t>
   </si>
   <si>
     <t xml:space="preserve">Апрель</t>
@@ -252,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,10 +337,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,19 +350,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -449,7 +433,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.55078125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,7 +797,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="n">
@@ -835,19 +819,19 @@
         <v>17</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="23" t="n">
+      <c r="L14" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -874,13 +858,13 @@
         <v>24</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="11" t="n">
@@ -900,7 +884,7 @@
       <c r="C16" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="13" t="n">
         <v>28</v>
       </c>
       <c r="E16" s="9" t="n">
@@ -913,14 +897,14 @@
         <v>31</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>10</v>
+      <c r="K16" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="L16" s="11" t="n">
         <v>11</v>
@@ -938,16 +922,16 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H18" s="9"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="26"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -1008,26 +992,26 @@
         <v>7</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="27" t="n">
+      <c r="B22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="21" t="n">
+      <c r="D22" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="9" t="n">
         <v>12</v>
       </c>
       <c r="F22" s="9" t="n">
@@ -1037,26 +1021,26 @@
         <v>14</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="27" t="n">
+      <c r="B23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="D23" s="28" t="n">
+      <c r="D23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="9" t="n">
         <v>19</v>
       </c>
       <c r="F23" s="9" t="n">
@@ -1066,26 +1050,26 @@
         <v>21</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="n">
+      <c r="A24" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="27" t="n">
+      <c r="B24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="D24" s="28" t="n">
+      <c r="D24" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="9" t="n">
         <v>26</v>
       </c>
       <c r="F24" s="9" t="n">
